--- a/101.xlsx
+++ b/101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="439">
   <si>
     <t>101. The One Where Monica Gets a New Roommate</t>
   </si>
@@ -42,15 +42,9 @@
     <t>[Time Lapse, Ross has entered.]</t>
   </si>
   <si>
-    <t>(Ross gestures his consent.)</t>
-  </si>
-  <si>
     <t>(Rachel enters in a wet wedding dress and starts to search the room.)</t>
   </si>
   <si>
-    <t>(They go to hug but Ross's umbrella opens.  He sits back down defeated again.  A moment of silence follows as Rachel sits and the others expect her to explain.)</t>
-  </si>
-  <si>
     <t>(The scene on TV has changed to show two women, one is holding her hair.)</t>
   </si>
   <si>
@@ -580,6 +574,70 @@
   </si>
   <si>
     <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I told mom and dad last night, they seemed to take it pretty well.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sorry.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alright Ross, look. You're feeling a lot of pain right now. You're angry. You're hurting. Can I tell you what the answer is?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I don't want to be single, okay? I just... I just- I just wanna be married again!</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Chandler:</t>
     </r>
     <r>
@@ -591,7 +649,87 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Sometimes I wish I was a lesbian... (They all stare at him.) Did I say that out loud?</t>
+      <t xml:space="preserve"> And I just want a million dollars! (He extends his hand hopefully.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Rachel?!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Oh God Monica hi! Thank God! I just went to your building and you weren't there and then this guy with a big hammer said you might be here and you are, you are!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Waitress:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Can I get you some coffee?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (pointing at Rachel) De-caff. (to All) Okay, everybody, this is Rachel, another Lincoln High survivor. (to Rachel) This is everybody, this is Chandler, and Phoebe, and Joey, and- you remember my brother Ross? </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hi, sure!</t>
     </r>
   </si>
   <si>
@@ -607,55 +745,71 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I told mom and dad last night, they seemed to take it pretty well.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Sorry.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alright Ross, look. You're feeling a lot of pain right now. You're angry. You're hurting. Can I tell you what the answer is?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I don't want to be single, okay? I just... I just- I just wanna be married again!</t>
+      <t xml:space="preserve"> Hi. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Who wasn't invited to the wedding.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ooh, I was kinda hoping that wouldn't be an issue... [Scene: Monica's Apartment, everyone is there and watching a Spanish Soap on TV and are trying to figure out what is going on.]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Now I'm guessing that he bought her the big pipe organ, and she's really not happy about it. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (on phone) Daddy, I just... I can't marry him! I'm sorry. I just don't love him. Well, it matters to me! </t>
     </r>
   </si>
   <si>
@@ -671,7 +825,55 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> And I just want a million dollars! (He extends his hand hopefully.)</t>
+      <t xml:space="preserve"> (re TV) Ooh, she should not be wearing those pants. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Phoebe, Ross, Chandler, and Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  Push her down the stairs! Push her down the stairs! Push her down the stairs!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Look Daddy, it's my life. Well maybe I'll just stay here with Monica. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Well, maybe that's my decision. Well, maybe I don't need your money. Wait!! Wait, I said maybe!!</t>
     </r>
   </si>
   <si>
@@ -687,7 +889,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Rachel?!</t>
+      <t xml:space="preserve"> Just breathe, breathe.. that's it. Just try to think of nice calm things...</t>
     </r>
   </si>
   <si>
@@ -703,295 +905,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Oh God Monica hi! Thank God! I just went to your building and you weren't there and then this guy with a big hammer said you might be here and you are, you are!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Waitress:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Can I get you some coffee?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (pointing at Rachel) De-caff. (to All) Okay, everybody, this is Rachel, another Lincoln High survivor. (to Rachel) This is everybody, this is Chandler, and Phoebe, and Joey, and- you remember my brother Ross? </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hi, sure!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hi. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Who wasn't invited to the wedding.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ooh, I was kinda hoping that wouldn't be an issue... [Scene: Monica's Apartment, everyone is there and watching a Spanish Soap on TV and are trying to figure out what is going on.]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Now I'm guessing that he bought her the big pipe organ, and she's really not happy about it. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (in a deep voice) I'll have whatever Christine is having.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (on phone) Daddy, I just... I can't marry him! I'm sorry. I just don't love him. Well, it matters to me! </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (re TV) Ooh, she should not be wearing those pants. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Phoebe, Ross, Chandler, and Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  Push her down the stairs! Push her down the stairs! Push her down the stairs!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Look Daddy, it's my life. Well maybe I'll just stay here with Monica. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Well, maybe that's my decision. Well, maybe I don't need your money. Wait!! Wait, I said maybe!!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Just breathe, breathe.. that's it. Just try to think of nice calm things...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Phoebe:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (sings) Raindrops on roses and rabbits and kittens, (Rachel and Monica turn to look at her.) bluebells and sleighbells and- something with mittens... La la la la...something and noodles with string.  These are a few...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> I'm all better now.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Phoebe:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (grins and walks to the kitchen and says to Chandler and Joey.) I helped!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Okay, look, this is probably for the best, y'know? Independence. Taking control of your life.  The whole, 'hat' thing.</t>
     </r>
   </si>
   <si>
@@ -4946,15 +4860,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>캐롤이 그녀의 물건들을 옮겨갔데, 오늘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>아~</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 커피를 가져다 줄게(사줄 께)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5086,11 +4992,6 @@
   </si>
   <si>
     <t>fixate : 고정하다. 고착하다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가끔 난 내가 레즈비었이었으면 해. 
-내가 그것을 큰 소리로 말했나?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5171,11 +5072,6 @@
   </si>
   <si>
     <t>커피를 드릴까요?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>디카페인, 자 여러분 여기는 레이첼, 또 다른 링컨고등학교 생존자.
-여기 모두, 여기는 챈들러, 피비, 조이 그리고 너도 기억하지 내 오빠 로스?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -5285,19 +5181,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>참치 아니면 계란 샐러드? 결정해!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 가질 거야 무엇이던지 크리스틴이 가지고 있는 것은</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아빠, 나는 단지, 난 그 사람과 결온할 수 없어요, 미안해요.
-난 정말 그를 사랑하지 않아요. 나에겐 문제에요.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>만약에 내 머리채를 잡히면 내 머리는 떨어졌을거야</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -5434,6 +5317,207 @@
   </si>
   <si>
     <t>미드보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bemused : 어리벙벙한 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(다른 사람들에게 설명)캐롤이 그녀의 물건들을 옮겨갔데, 오늘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(로스에게) 네 커피를 가져다 줄게(사줄 께)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가끔 난 내가 레즈비었이었으면 해. (그들 모두가 그를 처다보았다)
+내가 그것을 큰 소리로 말했나?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sometimes I wish I was a lesbian... (They all stare at him.) Did I say that out loud?</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stare : 빤히 처다보다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Ross gestures his consent.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(로스는 동의하는 행동을 취했다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Central PerK"카페에 챈들러, 조이, 피비, 그리고 모니카가 있다.]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그들 모두가 처다 보았다.  어리둥절하게)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[로스가 들어온다.]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(레이첼을 가리키며)디카페인, 자 여러분 여기는 레이첼, 또 다른 링컨고등학교 생존자. 여기 모두, 여기는 챈들러, 피비, 조이 그리고 너도 기억하지 내 오빠 로스?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(They go to hug but Ross's umbrella opens.  He sits back down defeated again.  A moment of silence follows as Rachel sits and the others expect her to explain.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>defeated : 패배한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(그들은 안으려고 했는데 그러나 로스의 부산이 펴졌다. 로스는 돌아가 앉았다. 다시 침울한 상태로. 
+잠시 침묵이 흐르고 래이첼이 앉았을 때, 그리고 다른 사람들은 기대했다 그녀의 설명을) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(누구? 역할을 흉내내면서)참치 아니면 계란 샐러드? 결정해!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (in a deep voice) I'll have whatever Christine is having.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(깊은-굵은(thick) 목소리로)나는 가질 거야 무엇이던지 크리스틴이 가지고 있는 것은</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전화로)아빠, 나는 단지, 난 그 사람과 결온할 수 없어요, 미안해요.
+난 정말 그를 사랑하지 않아요. 나에겐 문제에요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TV장면이 바뀌고, 두 여자가 보인다. 한 여자가 그녀의 머리카락을 잡고 있다)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(레이첼이 숨을 쉬고 있다. 종이 봉투 안으로)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨을 쉬어, 숨,  그래, 그냥 시도해 좋은 안정 된 것들을 생각해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Phoebe:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (sings) Raindrops on roses and rabbits and kittens, (Rachel and Monica turn to look at her.) bluebells and sleighbells and- something with mittens... La la la la...something and noodles with string.  These are a few...</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(노래) 장미 위의 빗방울과 토끼와 고양이,(레이첼과 모니카 그녀를 보려고 돌았다.) 
+파란 공들, 반짝이는 공들 그리고 벙어리 장갑이 달린 무엇인가, 무엇과 긴 국수, …</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 좋아졌어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(부엌으로 걸어가서 챈들러와 조이에게 말한다.)내가 도왔어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Phoebe:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (grins and walks to the kitchen and says to Chandler and Joey.) I helped!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grin : (소리없이)활짝웃다.(웃음)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Okay, look, this is probably for the best, y'know? Independence. Taking control of your life.  The whole, 'hat' thing.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자, 봐, 이것이 아마 최고로 좋은 것이야. 알지, 독립,
+잡아 네 인생의 제어권을. 모자 같은 것 말이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a shose - 신발 한짝, 쓸모없는 것의 의미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is for the best : 이것으로 좋았어！
+Take controle of〜 : 〜을 지배하다
+the whole 〜thing : 그런 녀석, 〜에 관한 모든 일.
+The whole, 'hat' thing. : 전적으로 모자 같은 사람 말이야</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5536,7 +5620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5566,6 +5650,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5871,16 +5958,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="C337" sqref="C337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="80.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="67.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35" style="4" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="50.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="25.125" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
@@ -5891,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -5900,12 +5987,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -5915,12 +6002,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -5932,1919 +6019,1973 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C25" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="8" t="s">
+    <row r="32" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C33" s="3" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>372</v>
+        <v>410</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>8</v>
+        <v>413</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>10</v>
+        <v>419</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
-        <v>85</v>
+        <v>423</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B80" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>409</v>
+        <v>395</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>92</v>
+        <v>429</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
-        <v>95</v>
+        <v>435</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="66" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="66" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B160" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B168" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B169" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B172" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="2:2" ht="66" x14ac:dyDescent="0.3">
       <c r="B174" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B176" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B185" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B194" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B197" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="198" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B198" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B201" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="210" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B210" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="217" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B217" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="220" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B220" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="226" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B226" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="232" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B232" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="236" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B236" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="246" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B246" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="256" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B256" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="260" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B260" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="267" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B267" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="274" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B274" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="278" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B278" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="283" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B283" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B284" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="289" spans="2:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B289" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="293" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B293" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="296" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B296" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="299" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B299" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="302" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B302" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="305" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B305" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="311" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B311" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="320" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B320" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="324" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B324" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="350" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B350" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B352" s="7" t="s">
-        <v>40</v>
+      <c r="B352" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/101.xlsx
+++ b/101.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="536">
   <si>
     <t>101. The One Where Monica Gets a New Roommate</t>
   </si>
@@ -921,7 +921,71 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (comforting her) And hey, you need anything, you can always come to Joey. Me and Chandler live across the hall. And he's away a lot.</t>
+      <t xml:space="preserve"> What, like there's a rule or something?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please don't do that again, it's a horrible sound.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Paul:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (over the intercom) It's, uh, it's Paul.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Who's Paul?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Paul the Wine Guy, Paul?</t>
     </r>
   </si>
   <si>
@@ -937,7 +1001,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Joey, stop hitting on her! It's her wedding day!</t>
+      <t xml:space="preserve"> Maybe. </t>
     </r>
   </si>
   <si>
@@ -953,7 +1017,119 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> What, like there's a rule or something?</t>
+      <t xml:space="preserve"> Wait. Your 'not a real date' tonight is with Paul the Wine Guy?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> He finally asked you out?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yes!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Rach, wait, I can cancel...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (to Ross) Are, are you okay? I mean, do you want me to stay?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (normal voice) No, go on! It's Paul the Wine Guy!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hi, come in! Paul, this is.. (They are all lined up next to the door.)... everybody, everybody, this is Paul.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>All:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hey! Paul! Hi! The Wine Guy! Hey!</t>
     </r>
   </si>
   <si>
@@ -969,7 +1145,55 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Please don't do that again, it's a horrible sound.</t>
+      <t xml:space="preserve"> I'm sorry, I didn't catch your name. Paul, was it?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Okay, umm-umm, I'll just--I'll be right back, I just gotta go ah, go ah...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Phoebe:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ooh, I just pulled out four eyelashes. That can't be good.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  Hey, Paul!</t>
     </r>
   </si>
   <si>
@@ -985,7 +1209,295 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (over the intercom) It's, uh, it's Paul.</t>
+      <t xml:space="preserve"> Yeah?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Here's a little tip, she really likes it when you rub her neck in the same spot over and over and over again until it starts to get a little red.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Well, I was kinda supposed to be headed for Aruba on my honeymoon, so nothing!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (deadpan) Yes, and we're very excited about it. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Well actually thanks, but I think I'm just gonna hang out here tonight.  It's been kinda a long day.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Okay, sure.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hey Pheebs, you wanna help?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Phoebe:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Oh, I wish I could, but I don't want to.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I'm thinking we've got a bookcase here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It's a beautiful thing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (picking up a leftover part) What's this?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chandler: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I would have to say that is an 'L'-shaped bracket.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Which goes where?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I have no idea.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Done with the bookcase!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All finished!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> You guys.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Oh, God.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Oh my God!</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1513,39 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Oh God, is it 6:30?  Buzz him in!</t>
+      <t xml:space="preserve"> Oh my God!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -leg?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I'm divorced!  I'm only 26 and I'm divorced!</t>
     </r>
   </si>
   <si>
@@ -1017,1118 +1561,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Who's Paul?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Paul the Wine Guy, Paul?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Maybe. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Wait. Your 'not a real date' tonight is with Paul the Wine Guy?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> He finally asked you out?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Yes!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ooh, this is a Dear Diary moment.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Rach, wait, I can cancel...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Please, no, go, that'd be fine!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (to Ross) Are, are you okay? I mean, do you want me to stay?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (choked voice) That'd be good...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (horrified) Really?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (normal voice) No, go on! It's Paul the Wine Guy!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Phoebe:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What does that mean?   Does he sell it, drink it, or just complain a lot? (Chandler doesn't know.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hi, come in! Paul, this is.. (They are all lined up next to the door.)... everybody, everybody, this is Paul.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>All:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hey! Paul! Hi! The Wine Guy! Hey!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I'm sorry, I didn't catch your name. Paul, was it?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Okay, umm-umm, I'll just--I'll be right back, I just gotta go ah, go ah...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A wandering?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Change!  Okay, sit down. (Shows Paul in) Two seconds.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Phoebe:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ooh, I just pulled out four eyelashes. That can't be good.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  Hey, Paul!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Paul:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Yeah?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Here's a little tip, she really likes it when you rub her neck in the same spot over and over and over again until it starts to get a little red.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (yelling from the bedroom) Shut up, Joey!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> So Rachel, what're you, uh... what're you up to tonight?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Well, I was kinda supposed to be headed for Aruba on my honeymoon, so nothing!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Right, you're not even getting your honeymoon, God.. No, no, although, Aruba, this time of year... talk about your- (thinks) -big lizards... Anyway, if you don't feel like being alone tonight, Joey and Chandler are coming over to help me put together my new furniture.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (deadpan) Yes, and we're very excited about it. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Well actually thanks, but I think I'm just gonna hang out here tonight.  It's been kinda a long day.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Okay, sure.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hey Pheebs, you wanna help?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Phoebe:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Oh, I wish I could, but I don't want to.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Phoebe:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (singing) Love is sweet as summer showers, love is a wondrous work of art, but your love oh your love, your love...is like a giant pigeon...crapping on my heart.  La-la-la-la-la- (some guy gives her some change and to that guy) Thank you. (sings) La-la-la-la...ohhh!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (squatting and reading the instructions) I'm supposed to attach a brackety thing to the side things, using a bunch of these little worm guys. I have no brackety thing, I see no whim guys whatsoever and- I cannot feel my legs.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I'm thinking we've got a bookcase here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> It's a beautiful thing.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (picking up a leftover part) What's this?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chandler: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I would have to say that is an 'L'-shaped bracket.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Which goes where?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I have no idea.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Done with the bookcase!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> All finished!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (clutching a beer can and sniffing) This was Carol's favorite beer. She always drank it out of the can, I should have known.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Hey-hey-hey-hey, if you're gonna start with that stuff we're outta here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Yes, please don't spoil all this fun.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ross, let me ask you a question. She got the furniture, the stereo, the good TV- what did you get?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> You guys.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Oh, God.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> You got screwed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Oh my God!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Oh my God!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Paul:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I know, I know, I'm such an idiot. I guess I should have caught on when she started going to the dentist four and five times a week. I mean, how clean can teeth get?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> My brother's going through that right now, he's such a mess. How did you get through it?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Paul:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Well, you might try accidentally breaking something valuable of hers, say her-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -leg?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Paul:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (laughing) That's one way! Me, I- I went for the watch.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> You actually broke her watch?  Wow!  The worst thing I ever did was, I-I shredded by boyfriend's favorite bath towel.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Paul:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ooh, steer clear of you.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Monica:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> That's right. [Scene: Monica's Apartment, Rachel is talking on the phone and pacing.]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Rachel:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Barry, I'm sorry... I am so sorry... I know you probably think that this is all about what I said the other day about you making love with your socks on, but it isn't... it isn't, it's about me, and I ju- (She stops talking and dials the phone.) Hi, machine cut me off again... anyway...look, look, I know that some girl is going to be incredibly lucky to become Mrs. Barry Finkel, but it isn't me, it's not me.  And not that I have any idea who me is right now, but you just have to give me a chance too... (The maching cuts her off again and she redials.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I'm divorced!  I'm only 26 and I'm divorced!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> Shut up!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> You must stop! (Chandler hits what he is working on with a hammer and it collapses.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> That only took me an hour.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chandler:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Look, Ross, you gotta understand, between us we haven't had a relationship that has lasted longer than a Mento.   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>You</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, however have had the love of a woman for four years.   Four years of closeness and sharing at the end of which she ripped your heart out, and that is why we don't do it!  I don't think that was my point!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> You know what the scariest part is? What if there's only one woman for everybody, y'know? I mean what if you get one woman- and that's it? Unfortunately in my case, there was only one woman- for her...</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Joey:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> What are you talking about? 'One woman'? That's like saying there's only one flavor of ice cream for you. Lemme tell you something, Ross. There's lots of flavors out there. There's Rocky Road, and Cookie Dough, and Bing! Cherry Vanilla. You could get 'em with Jimmies, or nuts, or whipped cream! This is the best thing that ever happened to you! You got married, you were, like, what, eight? Welcome back to the world! Grab a spoon!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ross:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I honestly don't know if I'm hungry or horny.</t>
     </r>
   </si>
   <si>
@@ -5518,6 +4951,1086 @@
 Take controle of〜 : 〜을 지배하다
 the whole 〜thing : 그런 녀석, 〜에 관한 모든 일.
 The whole, 'hat' thing. : 전적으로 모자 같은 사람 말이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (comforting her) And hey, you need anything, you can always come to Joey. 
+Me and Chandler live across the hall. And he's away a lot.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고, 이봐, 네가 무엇이든 필요하면, 너는 언제나 조이에게 와도 돼. 
+나와 챈들러는 홀 건너편에 살아. 
+그리고 그는 대부분 밖에 있어(주로 나 혼자 있어)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Joey, stop hitting on her! It's her wedding day!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조이, 그만 그녀를 괴롭혀)그만 추근데) , 오늘은 그녀의 결혼일이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit on someone : ~에게 작업걸다, 찝쩍대다, 들이대다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜, 어떤 규칙이나 그런 것들 있어?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(문 초인종이 울렸고 챈들러가 받았다)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발 다시는 그렇게 하지마세요. 끔찍한 소리입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(인터컴을 통해서) 에~ 폴입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Oh God, is it 6:30?  Buzz him in!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오~ 이런 6시 30분이야? 그를 들여보네(그를 들어오게 해)!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buzz in : 도착하다, 들어오다.
+buzz somebody in : ~를 들어오게 하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴이 누구야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴 와인 담당자, 폴?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠깐, 너의 진짜데이트가 아닌 것이  오늘 밤, 폴 와인담당자와 하는 거야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그가 결국 너에게 요청했니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ooh, this is a Dear Diary moment.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오, 이것은 소중한 일기 순간이네 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Diary moment : 역사적인 순간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리치, 잠깐 난 취소할 수 있어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please, no, go, that'd be fine!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니야, 나가, 괜찮을거야!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(로스에게) 괜찬아? 내 말은, 내가 여기 머무르길 원해?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (choked voice) That'd be good...</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(숨막히는목소리) 그럼 좋을텐테 …</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (horrified) Really?</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(놀란 상태로)정말?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrified : 겁에 질린, 무섭다 -&gt; 두려움이 더 강한 경우
+hurrified : 겁에 질린, 소름끼친다 -&gt; 충격이 더 강한 경우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(평상시 목소리) 아니야, 어서 나가. 와인 담당자 폴이잖아.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 무슨 의미야? 그가 와인을 팔아, 마셔, 아니면 단지 불만이 많은거야?
+(챈들러 알지 못한다)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Phoebe:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What does that mean?   Does he sell it, drink it, or just complain a lot? (Chandler doesn't know.)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문을 노크하고, 폴이 있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕, 들어와. 폴, 여기는(그들은 모두 문 옆에 모두 줄을 섰다.) 모두, 
+모두들 여기는 폴이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 폴, 와인 담당자, 안녕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안, 나는 네 이름을 듣지 못했는데, 폴이 맞지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아, 곧 돌아올께, 난 그냥 가서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A wandering?</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방황?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Change!  Okay, sit down. (Shows Paul in) Two seconds.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 갈아입을 거야. 앉아(폴을 보여줍니다. 폴에게 표시합닏. ) 2초만</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 난 그저 뽑았다. 4개 눈썹을, 이것은 좋지 않은데.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(모니카는 옷을 갈아입으러 갔다)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 폴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 작은 팁이 있어, 그녀는 정말 좋아해 네가 그녀의 목을 핧을 때 그러니까
+같은 부분을 계속해서 반복할 때 거기 약간 빨게 질때까지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (yelling from the bedroom) Shut up, Joey!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(침실에서 고함소리가 난다 ) 입 닥쳐 조이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> So Rachel, what're you, uh... what're you up to tonight?</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저, 레이첼 오늘 밤에 무엇해(무엇을 할꺼야)?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어~, 난 향하고 있어을 텐데 Aruba, 신혼여행으로, 없어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Right, you're not even getting your honeymoon, God.. 
+No, no, although, Aruba, this time of year... talk about your- (thinks) -big lizards... 
+Anyway, if you don't feel like being alone tonight, 
+Joey and Chandler are coming over to help me put together my new furniture.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 넌 심지어 너의 신혼여행도 갖지 못하는구나. 이런
+아니야, 아루바, 일년 중 지금은, 말하자만, 빅 리자드스
+암튼, 만약 혼자있고 싶지 않으면 오늘 밤, 조이와 챈들러가 나를 도우러 올거야 조립하려고 내 새로운 가구를</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 우리는 그것을 매우 기대하고 있어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어, 사실 고마워 하지만 내 생각에는 난 단지 여기서 지낼래 오늘 밤은.
+긴 하루야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>알았어, 맞아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여어 피비, 너도 돕고 싶니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 나도 가능하면 하고 싶어, 그러나 하기 실어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[지하철, 피비는 노래한다 바꾸기 위해서]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Phoebe:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (singing) Love is sweet as summer showers, love is a wondrous work of art, 
+but your love oh your love, your love...is like a giant pigeon...crapping on my heart.  
+La-la-la-la-la- (some guy gives her some change and to that guy) Thank you. 
+(sings) La-la-la-la...ohhh!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pigeon : 비둘기
+crap : 허튼 소리, 헛소리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(노래한다) 사랑은 달콤해 마치 여름에 샤워같이, 사랑은 놀라운 예술이야 
+그러나 너의 사랑은 너의 사랑은 너의 사랑은 거대한 비둘기 같아, 
+내 가슴의 헛소리. …(어떤 남자가 그녀에서 잔돈을 준다. 그에게) 고마워요.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[로스의 아파트, 그들 거기에서 가구를 조립 중이다]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(쪼그려 앉아서 설명서를 읽고 있다) 난 붙여야 할 것 같은데 브라켓 같은 것을 
+옆부분 같은 것에, 이 뭉치들를 사용해서 이 작은 벌레 같은 것
+브라켓 같은 것이 없고, 보이지도 않고 어떤종류의 휨한 것들도
+그리고 다리의 느낌도 없어
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (squatting and reading the instructions) 
+I'm supposed to attach a brackety thing to the side things, 
+using a bunch of these little worm guys. I have no brackety thing,
+I see no whim guys whatsoever and- I cannot feel my legs.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>whatsoever : whatever 강조</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(조이와 챈들러는 끝냈다 책꽃이 조립을)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름다운 것이네.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 생각하는 것은 우리가 이곳에 책꽃이를 놓는 거야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(왼쪽 부분을 집어들고) 이게 뭐지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 보기에는 L 형태의 브라겟이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어디에 있는것?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 몰라.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(조이는 로스가 보지 않는 것을 확인하고, 그것을 던져 버리다. 화분에)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>책꽃이 조립이 끝났다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두 끝났다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (clutching a beer can and sniffing) This was Carol's favorite beer. 
+She always drank it out of the can, I should have known.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clutch : (꽉)움켜잡다.
+Sniffing : 코를 홀쩍이다. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(맥주 캔을 꽉잡고, 코를 홀쩍이다) 이것은 캐롤이 좋아하는 맥주야.
+그녀는 언제나 마셨지, 캔으로, 내가 알았어야 했는데</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hey-hey-hey-hey, if you're gonna start with that stuff we're outta here.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이봐-이봐-이봐-이봐, 만약 네가 시작했으면 그것들을, 우리 여기서 나간다.
+그런 이야기하면, 나간다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yes, please don't spoil all this fun.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 이 모든 즐거움을 망치지마!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoil : 망치다. 버려놓다. 못쓰게 만들다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ross, let me ask you a question. 
+She got the furniture, the stereo, the good TV- what did you get?</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로스, 질문하나 할께.
+그녀가 가구, 오디오, 좋은 TV를 가졌는데, 네가 가진 것은 뭐야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너희들</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 저런</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> You got screwed.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 곤란해졌다.(넌 망했다)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 저런</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[식당에서, 모니카하고 폴이 식사를 하고 있다]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 저런</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 알아, 나도 알아, 내가 정말 바로라는 것, 내 생각에도 내가 알아챘어야 했어 
+그녀가 치과에 가기 시작했을 때 일주일에 4~5번 씩이나.
+내 말은 어떻게 이빨을 그렇게 깨끗하게 할 수 있을까?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Paul:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I know, I know, I'm such an idiot. I guess I should have caught on 
+when she started going to the dentist four and five times a week. 
+I mean, how clean can teeth get?</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> My brother's going through that right now, he's such a mess. 
+How did you get through it?</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 오빠도 겪고 있는 중이야 그것을 지금, 그는 엉망이야.
+너는 어떻게 그것을 견뎌냈니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Paul:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Well, you might try accidentally breaking something valuable of hers, say her-</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">음, 너는 아마 시도하면 될꺼야, 우연히 깨다. 그녀에게 가치있는 것들을~
+말하자면 그녀의 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다리?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(웃음) 그것도 한 방법이지. 난 시계로 했어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Paul:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (laughing) That's one way! Me, I- I went for the watch.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> You actually broke her watch?  
+Wow!  The worst thing I ever did was, I-I shredded by boyfriend's favorite bath towel.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">너는 실제 그녀의 시계를 부셨어?
+와우, 최악은 나도 전에 그런 적이 있어. 
+난 갈갈이 찢었어 내 남자친구가 좋아하는 목욕타올을 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredded : 갈갈이 찢긴, 잘게 조각난</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Paul:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ooh, steer clear of you.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>steer clear of you : 너를 피해야겠다. 조심해야겠다.
+steer clear of ~ : ~을 피하다. ~을 조심하다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 널 조심해야겠는데</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Monica:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> That's right. 
+[Scene: Monica's Apartment, Rachel is talking on the phone and pacing.]</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pace : 속도
+pacing :왔다갔다하다. 돌아다니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아, 
+[모니카 아파트에서, 레이첼이 전화에 대고 말하면서 왔다갔다 하다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rachel:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Barry, I'm sorry... I am so sorry... 
+I know you probably think that this is all about what I said the other day about you making love with your socks on, but it isn't... it isn't, it's about me, and I ju-
+(She stops talking and dials the phone.) Hi, machine cut me off again... 
+anyway...look, look, I know that some girl is going to be incredibly lucky to 
+become Mrs. Barry Finkel, but it isn't me, it's not me.  
+And not that I have any idea who me is right now, 
+but you just have to give me a chance too... (The maching cuts her off again and she redials.)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배리, 미안해, 정말 미안해.
+나는 알아 네가 아마 생ㄱ할 거야, 내가 말하는 모든 것들이, 어느 날 네가 양말을 신고 사랑을 하는 것에 대해서 이것은 나에 대한 것이 아니야 그리고
+(그녀는 말하기를 멈추고 다시 전화를 건다). 안녕 머신 다시 끊어졌네…
+어쨌던, 봐봐, 나는 알아 어느 여자가 엄청나게 운이 좋아서 미세스 배리 핑클씨의 될 것이야, 그러나 나는 아니야, 난 아니야. 
+그리고 난 아무런 생각이 없어 내가 누구인지 지금 당장. 
+그러나 너는 나에게 단지 기회를 주어야 해, 역시(기계가 또 다시 끊었다 그녀는 다시 전화를 한다)
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난, 이혼당했어. 난 단지 26살인데 이혼을 당했어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[로스의 아파트 - 로스는 왔다갔다 한다. 
+조이와 첸들러가 다른 가구들 작업을 하는 동안에]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용히 해!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> You must stop! 
+(Chandler hits what he is working on with a hammer and it collapses.)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당장 멈춰
+(챈들러는 쳤다. 그가 일하던 것들을 해머로 그리고 그것들이 흩어졌다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> That only took me an hour.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한 시간 밖에 걸리지 않았는데  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Chandler:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Look, Ross, you gotta understand, 
+between us we haven't had a relationship that has lasted longer than a Mento.   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, however have had the love of a woman for four years.   
+Four years of closeness and sharing at the end of which she ripped your heart out, 
+and that is why we don't do it!  I don't think that was my point!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>봐, 로스 너는 이해 해야 해, 
+우리 사이에 우리가 관계가 없었다 지난 번 멘토보다 긴
+너, 그러나, 사랑해 왔었다. 한 여자를 4년 동안.
+4년 동안 깊은 관계 그리고 나눔, 마지막 그녀가 그녀의 마음을 감싸 나간. 
+그래서 우리가 그것을 안 하는거야. 나는 그것이 내 요점이라고 생각하지 않아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> You know what the scariest part is? 
+What if there's only one woman for everybody, y'know? 
+I mean what if you get one woman- and that's it? 
+Unfortunately in my case, there was only one woman- for her...</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Joey:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> What are you talking about? 'One woman'? 
+That's like saying there's only one flavor of ice cream for you. 
+Lemme tell you something, Ross. 
+There's lots of flavors out there. 
+There's Rocky Road, and Cookie Dough, and Bing! Cherry Vanilla. 
+You could get 'em with Jimmies, or nuts, or whipped cream! 
+This is the best thing that ever happened to you! 
+You got married, you were, like, what, eight? Welcome back to the world! Grab a spoon!</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 무서운 부분이 무엇인지 알아?
+만약 오직 한 여자가  모든 사람에게 있다면?
+내 말은, 만약 네가 한 여자만 얻는다면, 그리고 그렇다면?
+불행이도 내 경우에는 오직 한 여자만 있었어. 그녀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 말을 하고 있는거야? "한 여자"?
+그것은 마치 말하는 것과 같아, 너에게는 오직 한 종류의 아이스크림 만이 있다.
+내가 말해 줄께 로스(Letme -&gt; Lemme), 말해 줄께 있어 로스
+세상에는 밖에는 많은 종류의 아이스크림이 있어.
+로키로드, 쿠리도우, 빙, 체리바닐라
+넌 선택할 수 있어 그것들을 지미, 땅콩 똔느 크림을 올린 것과 함께
+이것은 최고의 일이야 그동안 너에게 일어난 것 중에
+너는 결혼했어, 너는, 마치, 무엇, 8살? 환영해, 세상으로 돌아온 것을. 수저를 잡아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ross:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I honestly don't know if I'm hungry or horny.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔직히 말해서, 잘 모르겠어 , 내가 배가 고픈 것인지 흥분한 것인지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>horny : 성적으로 흥분한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 냉장고에서 떨어져! 
+[ 레스토랑에서 : 모니카하고 폴이 아직 식사중이다]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5958,8 +6471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="C337" sqref="C337"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5978,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -5987,12 +6500,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6020,7 +6533,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -6028,7 +6541,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6036,7 +6549,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6044,10 +6557,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -6055,7 +6568,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
@@ -6063,10 +6576,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -6074,7 +6587,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -6082,7 +6595,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -6090,7 +6603,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -6103,7 +6616,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -6111,7 +6624,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -6119,7 +6632,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -6127,7 +6640,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
@@ -6135,7 +6648,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -6143,7 +6656,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -6151,7 +6664,7 @@
         <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -6159,7 +6672,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -6167,7 +6680,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6175,7 +6688,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -6183,7 +6696,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -6191,7 +6704,7 @@
         <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -6199,7 +6712,7 @@
         <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -6207,18 +6720,18 @@
         <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -6226,15 +6739,15 @@
         <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
@@ -6242,7 +6755,7 @@
         <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -6250,7 +6763,7 @@
         <v>63</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
@@ -6258,34 +6771,34 @@
         <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
@@ -6293,7 +6806,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -6301,15 +6814,15 @@
         <v>66</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -6317,29 +6830,29 @@
         <v>67</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -6347,15 +6860,15 @@
         <v>68</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -6363,7 +6876,7 @@
         <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -6371,26 +6884,26 @@
         <v>70</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -6398,7 +6911,7 @@
         <v>71</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -6411,7 +6924,7 @@
         <v>72</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
@@ -6419,7 +6932,7 @@
         <v>73</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6427,7 +6940,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
@@ -6435,7 +6948,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6443,7 +6956,7 @@
         <v>76</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
@@ -6451,7 +6964,7 @@
         <v>77</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -6459,40 +6972,40 @@
         <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="247.5" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="231" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -6500,7 +7013,7 @@
         <v>79</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6508,7 +7021,7 @@
         <v>80</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -6516,23 +7029,23 @@
         <v>81</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -6540,7 +7053,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
@@ -6548,15 +7061,15 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
@@ -6564,15 +7077,15 @@
         <v>83</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -6580,7 +7093,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -6590,21 +7103,21 @@
     </row>
     <row r="82" spans="2:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
@@ -6612,18 +7125,18 @@
         <v>85</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -6631,7 +7144,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
@@ -6639,7 +7152,7 @@
         <v>11</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
@@ -6647,15 +7160,15 @@
         <v>87</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" ht="66" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
@@ -6663,544 +7176,835 @@
         <v>88</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
-        <v>89</v>
+        <v>405</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
-        <v>90</v>
+        <v>407</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C96" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B99" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="7" t="s">
+      <c r="C100" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="7" t="s">
+      <c r="C101" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="7" t="s">
+      <c r="C102" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="7" t="s">
+      <c r="C103" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="7" t="s">
+      <c r="C104" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="7" t="s">
+      <c r="C105" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="7" t="s">
+      <c r="C107" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="7" t="s">
+      <c r="C109" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B111" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="C112" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B113" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="C114" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C122" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" ht="66" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="2:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="C136" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="139" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C138" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C140" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C147" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C158" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B160" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B162" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B165" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" ht="115.5" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B168" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B169" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C169" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B172" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" ht="66" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B174" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B175" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" ht="82.5" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" ht="132" x14ac:dyDescent="0.3">
       <c r="B176" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B178" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B185" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" s="7" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="5" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B194" s="7" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
@@ -7210,27 +8014,27 @@
     </row>
     <row r="197" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B197" s="7" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B198" s="7" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="7" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="7" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
     </row>
     <row r="201" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B201" s="7" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
@@ -7250,62 +8054,62 @@
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="7" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="7" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="7" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="7" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B210" s="7" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="7" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="7" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="7" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="7" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="7" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="217" spans="2:2" ht="33" x14ac:dyDescent="0.3">
@@ -7315,162 +8119,162 @@
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="7" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="7" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="220" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B220" s="7" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="7" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="7" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="7" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="7" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="7" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="226" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B226" s="7" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="7" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="7" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="7" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="7" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
     </row>
     <row r="232" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B232" s="7" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="7" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="236" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B236" s="7" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="7" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="7" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="7" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="7" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="7" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="7" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="7" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="7" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="246" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B246" s="7" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="7" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
@@ -7485,47 +8289,47 @@
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="256" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B256" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="260" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B260" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.3">
@@ -7535,47 +8339,47 @@
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="7" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="267" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B267" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="7" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="7" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="7" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.3">
@@ -7585,57 +8389,57 @@
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="7" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="274" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B274" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="7" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="7" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="7" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
     </row>
     <row r="278" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B278" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="7" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="283" spans="2:2" ht="33" x14ac:dyDescent="0.3">
@@ -7645,32 +8449,32 @@
     </row>
     <row r="284" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B284" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" s="7" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="289" spans="2:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B289" s="7" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.3">
@@ -7680,62 +8484,62 @@
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" s="7" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="293" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B293" s="7" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" s="7" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" s="7" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="296" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B296" s="7" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" s="7" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298" s="7" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
     </row>
     <row r="299" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B299" s="7" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" s="7" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="302" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B302" s="7" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.3">
@@ -7745,7 +8549,7 @@
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304" s="7" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
     </row>
     <row r="305" spans="2:2" ht="33" x14ac:dyDescent="0.3">
@@ -7755,37 +8559,37 @@
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="7" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="7" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="7" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="7" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" s="7" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
     </row>
     <row r="311" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B311" s="7" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" s="7" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.3">
@@ -7795,77 +8599,77 @@
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" s="7" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317" s="7" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="320" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B320" s="7" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" s="7" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322" s="7" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323" s="7" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="324" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B324" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" s="7" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326" s="7" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" s="7" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328" s="7" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.3">
@@ -7875,12 +8679,12 @@
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330" s="7" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331" s="7" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.3">
@@ -7895,92 +8699,92 @@
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334" s="7" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335" s="7" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" s="7" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" s="7" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" s="7" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" s="7" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" s="7" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" s="7" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" s="7" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" s="7" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" s="7" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" s="7" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" s="7" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
     </row>
     <row r="350" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B350" s="7" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" s="7" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.3">

--- a/101.xlsx
+++ b/101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18315" windowHeight="7620"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="718">
   <si>
     <t>101. The One Where Monica Gets a New Roommate</t>
   </si>
@@ -105,19 +105,10 @@
     <t xml:space="preserve">(Monica pushes him off of the sofa as Rachel enters with a shopping bag.) </t>
   </si>
   <si>
-    <t>[Scene: Monica and Rachel's, everyone is sitting around the kitchen table.   Rachel's credit cards are spread out on the table along with a pair of scissors.]</t>
-  </si>
-  <si>
     <t xml:space="preserve">(Pause) </t>
   </si>
   <si>
     <t>(She finishes cutting them up and they all cheer.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Time Lapse, Rachel and Ross are watching a TV channel finishes it's broadcast day by playing the national anthem.] </t>
-  </si>
-  <si>
-    <t>(Monica stomps on Paul's watch and goes into her room.)</t>
   </si>
   <si>
     <t xml:space="preserve">(Rachel goes into her room and Monica enters the living room as Ross is leaving.) </t>
@@ -1000,49 +991,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Monica: There's nothing to tell! He's just some guy I work with!</t>
-  </si>
-  <si>
-    <t>Joey: C'mon, you're going out with the guy! There's gotta be something wrong with him!</t>
-  </si>
-  <si>
-    <t>Chandler: All right Joey, be nice.  So does he have a hump? A hump and a hairpiece?</t>
-  </si>
-  <si>
-    <t>Phoebe: Wait, does he eat chalk?</t>
-  </si>
-  <si>
-    <t>Phoebe: Just, 'cause, I don't want her to go through what I went through with Carl- oh!</t>
-  </si>
-  <si>
-    <t>Monica: Okay, everybody relax. This is not even a date. It's just two people going out to dinner and- not having sex.</t>
-  </si>
-  <si>
-    <t>Chandler: Sounds like a date to me.</t>
-  </si>
-  <si>
-    <t>Chandler: Alright, so I'm back in high school, I'm standing in the middle of the cafeteria, and I realize I am totally naked.</t>
-  </si>
-  <si>
-    <t>All: Oh, yeah. Had that dream.</t>
-  </si>
-  <si>
-    <t>Chandler: Then I look down, and I realize there's a phone... there.</t>
-  </si>
-  <si>
-    <t>Joey: Instead of...?</t>
-  </si>
-  <si>
-    <t>Chandler: That's right.</t>
-  </si>
-  <si>
-    <t>Joey: Never had that dream.</t>
-  </si>
-  <si>
     <t>Phoebe: No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandler: All of a sudden, the phone starts to ring. Now I don't know what to do, everybody starts looking at me. </t>
   </si>
   <si>
     <t>Monica: And they weren't looking at you before?!</t>
@@ -1719,9 +1668,6 @@
     <t>Monica: How do you do that?</t>
   </si>
   <si>
-    <t xml:space="preserve">Frannie: Oh, I hate you, I'm pushing my Aunt Roz through Parrot Jungle and you're having sex!  So? Who? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Monica: You know Paul? </t>
   </si>
   <si>
@@ -1731,48 +1677,18 @@
     <t xml:space="preserve">Monica: You mean you know Paul like I know Paul? </t>
   </si>
   <si>
-    <t xml:space="preserve">Frannie: Are you kidding? I take credit for Paul. Y'know before me, there was no snap in his turtle for two years. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joey: (sitting on the arm of the couch)Of course it was a line! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica: Why?! Why? Why, why would anybody do something like that? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross: I assume we're looking for an answer more sophisticated than 'to get you into bed'. </t>
-  </si>
-  <si>
     <t>Monica: I hate men!  I hate men!</t>
   </si>
   <si>
-    <t>Phoebe: Oh no, don't hate, you don't want to put that out into the universe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica: Is it me? Is it like I have some sort of beacon that only dogs and men with severe emotional problems can hear? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phoebe: All right, c'mere, gimme your feet. (She starts massaging them.) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Monica: I just thought he was nice, y'know? </t>
   </si>
   <si>
-    <t xml:space="preserve">Joey: (bursts out laughing again) I can't believe you didn't know it was a line! </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rachel: Guess what? </t>
   </si>
   <si>
     <t xml:space="preserve">Ross: You got a job? </t>
   </si>
   <si>
-    <t xml:space="preserve">Rachel: Are you kidding? I'm trained for nothing! I was laughed out of twelve interviews today. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandler: And yet you're surprisingly upbeat. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rachel: You would be too if you found John and David boots on sale, fifty percent off! </t>
   </si>
   <si>
@@ -1794,24 +1710,12 @@
     <t xml:space="preserve">Rachel: Um... my... father. </t>
   </si>
   <si>
-    <t xml:space="preserve">Rachel: Oh God, come on you guys, is this really necessary?  I mean, I can stop charging anytime I want. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica: C'mon, you can't live off your parents your whole life. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rachel: I know that. That's why I was getting married. </t>
   </si>
   <si>
-    <t xml:space="preserve">Phoebe: Give her a break, it's hard being on your own for the first time. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rachel: Thank you. </t>
   </si>
   <si>
-    <t xml:space="preserve">Phoebe: You're welcome. I remember when I first came to this city. I was fourteen. My mom had just killed herself and my step-dad was back in prison, and I got here, and I didn't know anybody. And I ended up living with this albino guy who was, like, cleaning windshields outside port authority, and then he killed himself, and then I found aromatherapy. So believe me, I know exactly how you feel. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ross: The word you're looking for is 'Anyway'... </t>
   </si>
   <si>
@@ -1836,9 +1740,6 @@
     <t>All: Cut, cut, cut, cut, cut, cut, cut... (She cuts one of them and they cheer.)</t>
   </si>
   <si>
-    <t>Rachel: Y'know what?  I think we can just leave it at that.  It's kinda like a symbolic gesture...</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monica:  Rachel!  That was a library card! </t>
   </si>
   <si>
@@ -1851,9 +1752,6 @@
     <t xml:space="preserve">Monica: Welcome to the real world! It sucks. You're gonna love it! </t>
   </si>
   <si>
-    <t xml:space="preserve">Monica: Well, that's it (To Ross) You gonna crash on the couch? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ross: No. No, I gotta go home sometime. </t>
   </si>
   <si>
@@ -1890,9 +1788,6 @@
     <t xml:space="preserve">Rachel: Okay. </t>
   </si>
   <si>
-    <t xml:space="preserve">Ross: Okay. (They split it.) You know you probably didn't know this, but back in high school, I had a, um, major crush on you. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rachel: I knew. </t>
   </si>
   <si>
@@ -1900,9 +1795,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rachel: I did. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross: Oh. Listen, do you think- and try not to let my intense vulnerability become any kind of a factor here- but do you think it would be okay if I asked you out? Sometime? Maybe? </t>
   </si>
   <si>
     <t xml:space="preserve">Rachel: Yeah, maybe... </t>
@@ -1970,18 +1862,6 @@
   </si>
   <si>
     <t>All: Yes!</t>
-  </si>
-  <si>
-    <t>Monica: I said that you had a nice butt, it's just not a great butt.</t>
-  </si>
-  <si>
-    <t>Joey: Oh, you wouldn't know a great butt if it came up and bit ya.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross: There's an image. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachel: (walks up with a pot of coffee) Would anybody like more coffee? </t>
   </si>
   <si>
     <t xml:space="preserve">Chandler: Did you make it, or are you just serving it? </t>
@@ -2445,7 +2325,646 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>안녕 프레니, 잘 돌아왔어. 를로리다는 어때?</t>
+    <t>안녕 프레니, 잘 돌아왔어. 플로리다는 어때?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 섹스했지 그렇지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 그럴 수 있지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Frannie: Oh, I hate you, I'm pushing my Aunt Roz through Parrot Jungle 
+and you're having sex!  So? Who? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 난 네가 실어, 난 밀었어 "Roz"이모를 Parrot 정글에, 
+그리고 네가 섹스를 했다니? 그래 누구야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 폴 알지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴, 와인담당? 오, 그래 , 나는 알지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 의미는 네가 폴을 알아 ~ 하는 것처럼 내가 폴을 아는 것처럼?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>take credit for (something) : ~의 공을 차지하다. 생색내다.
+Mary took credit for everything that David did.
+메리가 데비드 한 일의 모든 공로를 가로챘다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Frannie: Are you kidding? I take credit for Paul. 
+Y'know before me, there was no snap in his turtle for two years. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>농담해? 폴에 대해 생색내다(폴은 나에게 고마워해야 해). 네가 나를 알기 전에, 
+2년 전에는 그의 거북이에 스냅이 없었다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Central PerK"카페:  모두 레이첼은 빼고 그곳에 있다.]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Joey: (sitting on the arm of the couch)Of course it was a line! </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(코치 팔 걸이에 앉아 있다) 물론, 그것은 대사였어. (작업 멘트)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica: Why?! Why? Why, why would anybody do something like that? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜, 왜, 왜 모두가  그런 것들을 해?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross: I assume we're looking for an answer more sophisticated than 'to get you into bed'. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 생각에는 우리는 답을 찾고 있어 좀 더 세련된 ~보다 "당신을 침대에 눞히기 위해".</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 남자기 싫어. 난 남자가 싫어!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoebe: Oh no, don't hate, you don't want to put that out into the universe.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오, 아니야. 미워하지마. 너는 원하지 않아 그것을 꺼내서 우주로 넣기를 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica: Is it me? Is it like I have some sort of beacon that only dogs and men with severe emotional problems can hear? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가? ~같아. 내가 어떤 일종의 신호를 가지고 있다고 
+오직 개와 사람 감정적인 문제를 가진 들을 수 있는?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아, 이리와, 네 발을 줘봐. (그녀가 그것들을 마사지하기 시작한다)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoebe: All right, c'mere, gimme(= come here give me) your feet. (She starts massaging them.) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 그저 그가 좋은 사람이라고 생각했어, 알아~?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Joey: (bursts out laughing again) I can't believe you didn't know it was a line! </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(갑자기 다시 웃기 시작했다) 난 믿을 수 없어, 
+네가 알지 못했다는 것을 그것이 작업 멘트였다는 것을</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(모니카는 그를 밀어버린다 소라에서 그때 레이첼이 들어온다 쇼핑백을 들고)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추측해봐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 일자리를 잡았지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel: Are you kidding? I'm trained for nothing! I was laughed out of twelve interviews today. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>농담해, 난 아무것도 배운 것이 없어, 
+난 비웃음을 받았어(웃음거리가 되었어) 12개 면접에서, 오늘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandler: And yet you're surprisingly upbeat. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데도 넌 놀란만큼 낙관적이야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>upbeat : 긍정적인, 낙관적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도 그럴거야, 만약 네가 찾았다면 "John and David"부츠 세일 중인, 50프로 할인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 넌 어떻게 날 잘 아니~</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 그것을 지불했니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어~ 신용카드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 누가 그것을 지불하니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어~ 내 아버지.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[모키가와 레이첼, 모두가 앉아있다 식탁 주변에. 레이첼의 신용카드 널려져있다 
+테이블 위에 가위와 함께</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>along with ~ : ~와 함께, ~와  따라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Scene: Monica and Rachel's, everyone is sitting around the kitchen table.   
+Rachel's credit cards are spread out on the table along with a pair of scissors.]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel: Oh God, come on you guys, is this really necessary?  
+I mean, I can stop charging anytime I want. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오, 이런, 얘들아 이것이 정말 필요하니?
+내 말은 나는 충전을 멈출 수 있어 언제든지 내가 원하면 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica: C'mon, you can't live off your parents your whole life. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어서, 넌 신세지며 살 수 없어 너의 부모님 네 평생을 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">live off 사람 : 얹혀살다. 신세지며 살다
+live off 사물 : (사물)을 기반으로 살다.
+     I've lived off the stock : 주식으로 생활하고 있다.
+live off 음식 : (음식)을 주식으로 하다.
+     I've lived off potatoes : 감자를 주식으로 해요
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 알아 그것을. 그것이 내가 결혼하려는 이유야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoebe: Give her a break, it's hard being on your own for the first time. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀에게 여유를 줘(보채지마). 이것은 어려워 네 스스로가 되는 것 (혼자되는 것, 독립하는 것)은 처음으로.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoebe: You're welcome. 
+I remember when I first came to this city. I was fourteen. 
+My mom had just killed herself and my step-dad was back in prison, and I got here, and I didn't know anybody. 
+And I ended up living with this albino guy who was, like, cleaning windshields outside port authority, and then he killed himself, and then I found aromatherapy. 
+So believe me, I know exactly how you feel. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>천만에, 난 기억해 언제? 내가 처음 이 도시에 왔을 때, 나는 14살이었어.
+엄마는 그냥 자살했고, 내 양부는 감옥에 갔고, 난 여기왔어, 그리고 난 아무도 알지 못했어.
+그리고 마침내 살았어 백색증 남자와 그는 바깥창문 청소 파트의 책임자였어, 그리고 그는 자살했어, 그리고 난 방향치료를 발견했지.
+그래서 날 믿어, 나는 정확히 알라 네가 어떤 기분인지.(어떻게 느끼는지)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(모두 정지)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 찾는 단어는 "어쨌든"이야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아, 준비되었지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니야, 아니야, 난 준비되지 않았어. 어떻게 내가 준비가 되겠어?
+"이봐 리치! 너는 준비되었어 뛰어내릴 비행기에서 네 낙하산 없이" 
+오 이런 난 이것을 할 수 없어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 할 수 있어, 알지 넌 할 수 있어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 그렇게 생각하지 않아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이봐~ 넌 커피를 만들었어. 넌 모든지 할 수 있어(챈들러는 천천히 시도한다 
+숨기려고 죽은 식물을 그날 아침에, 그와 조이가 그들의 커피를 그 안에 부어 넣은)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서, 잘라,잘라, 잘라, 잘라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘라,잘라, 잘라, 잘라, 잘라,잘라, 잘라, 잘라 
+(그녀가 자른다 그것들 중에 하나를 그들이 환호한다(겪려 한다)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachel: Y'know what?  I think we can just leave it at that.  It's kinda like a symbolic gesture...</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이첼, 이것은 도서관 카드야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘라,잘라, 잘라, 잘라</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(레이첼이 그녀의 카드들을 자른다) 너 아니, 만약 네가 귀를 기울이면, 
+너는 들을 수 있어 수천의 소매상의 비명을</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그녀는 그것들을 자르는 것을 마쳤다, 그들은 모두 격려를 한다)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>환영해 진짜 세상에 온 것을, 끔찍해, 넌 좋아하게 될거야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Time Lapse, Rachel and Ross are watching a TV channel finishes it's broadcast day by playing the national anthem.] </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[레이첼과 로스는 보고 있다. TV 채널이 그날 방송을 끝낸다. 국가 연주로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그럼, 이것이야. 로스에게 너는 코치에서 잘래? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica: Well, that's it (To Ross) You gonna crash on the couch? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>crash on the couch : 소파에서 자다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 아니, 가끔은 집에 가야지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이봐 모니카. 봐, 내가 막 찾은 것이 무엇인지 마루 위에서. 
+(모니카가 웃는다) 뭐야? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그것은 폴의 시계야. 넌 그냥 돌려봐 네가 찾은 곳에. 오 이런 좋아
+모두 잘자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[모니카는 폴의 시계 -- 하고 그녀의 방으로 들어간다.]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Monica stomps on Paul's watch and goes into her room.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stomp : 발을 구르다, 쿵쿵거리며 걷다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>음 (그들 둘다 마지막 남은 쿠리에 다가간다) 오, 이런</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니야, 아니야, 계속해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노, 네꺼야. 정말, 난 원하지 않아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나눌까?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross: Okay. (They split it.) You know you probably didn't know this, but back in high school, I had a, um, major crush on you. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아(그것을 나눈다) 너는 알지, 너는 아마 이것을 몰랐을 수도 있어, 그러나 
+고등학교 시절도 돌아가면,  나는 너에게 완전히 반했다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 알아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그랬구나, 난 늘 알았어 네가 단지 생각하는 것으로 내가 모니카의 괴짜 오빠라고.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그했어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[have] crush on : (이성에게) 반하다. 짝사랑하다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross: Oh. Listen, do you think- and try not to let my intense vulnerability become any kind of a factor here- but do you think it would be okay if I asked you out? Sometime? Maybe? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 들어봐, 생각해, 그리고 시도해 나의 매우 취약함 어떤 종류의 요점이 되게 하지마
+그러나 너는 생각해 괜찮을 것이라고 만약 내가 요청한다면 너에게 데이트를, 언젠가, 아마도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intense : 강렬한/ 치열한 / 열정적인, 진지한
+vulnerability : 취약함. 취약점
+I asked you out : 데이트 신청하다.
+Can I aske you out? 데이트 신청해도 되요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 아마도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아, 좋아, 아마 내가 할꺼야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(레이첼은 그녀의 방으로 들어가고 모니카가 들어온다 거실로 로스가 나가는 도중에</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중에 봐 잠깐, 잠깐, 무슨 일이야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 단지 수푼을 잡았을 뿐이야(로스는 나가고 모니가는 무슨 의미인지 알지못한다)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Central Perk", 모두가 있다.]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 믿을 수 없어, 내가 무엇을 들었는지 여기서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(노래한다) 조이가 한 말로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐? 난 네게 말했어 너는 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(피비에게) 멈춰줄래?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 내가 또 그랬니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 말했다. 너는 가지고 있어 멋있는 엉덩이를, 대단한 엉덩이는 아니고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica: I said that you had a nice butt, it's just not a great butt.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(노래한다) 모니카가 한 말로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey: Oh, you wouldn't know a great butt if it came up and bit ya.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>come up : (땅을 뚫고) 나오다(움이 트다). 뜨다, 발생하다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 넌 대단한 엉덩이를 모르고 있다. 만약 그것이 생겨서 너를 문다면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross: There's an image. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지, 상상?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel: (walks up with a pot of coffee) Would anybody like more coffee? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(커피포틀 가지고 걸어가다.) 누구 커피는 더 원하는 사람?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네가 만들었니, 아님 단지 서빙하는 것이니?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 단지 서빙하는 것야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 그래, 커피 한 잔 줘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얘들아, 새로운 꿈에서 … 난 라스베가스에 있어
+(레이첼리 앉아서 챈들러의 꿈을 듣기 위해서)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(레이첼에게) 아가씨, 커피 더 줘요?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어(다른 손님이 나간다) 실례해요, 이것을 줄수있나요 건너편에 있는 남자에게?
+(그에게 커피를 전해 준다), 계속 해,(그가 그렇게 한다)
+고마워, (갱에게) 미만, 좋아, 라스베가스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아, 난 라스베가스에 있고, 난 리느 미넬리 야.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 아니? 내 생각에는 우리 그것을 그대로 둘 수 있다고 생각해 .
+이것은 일종의 대표적인 행위로, 상징적으로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그들이 나를 새롭게 했어 '난 직업이 필요없고, 부모도 필요없어, 
+난 대단한 부츠를 가졌어' 부츠를!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey: 
+C'mon, you're going out with the guy! 
+There's gotta be something wrong with him!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoebe: 
+Wait, does he eat chalk?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoebe: 
+Just, 'cause, I don't want her to go through what I went through with Carl- oh!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica: 
+Okay, everybody relax. 
+This is not even a date. 
+It's just two people going out to dinner and- not having sex.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+Sounds like a date to me.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+Alright, so I'm back in high school, 
+I'm standing in the middle of the cafeteria, and I realize I am totally naked.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>All: 
+Oh, yeah. Had that dream.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안들린다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+[All right Joey, be nice.  - 없음]
+So does he have a hump? A hump and a hairpiece?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+Then I look down, and I realize there's a phone... there.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey: 
+Instead of...?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+That's right.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey: 
+Never had that dream.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica: 
+There's nothing to tell!
+(He's / It's) just some guy I work with!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandler: 
+All of a sudden, the phone starts to ring. 
+Now I don't know what to do, everybody starts looking at me. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2597,7 +3116,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>932722</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>86029</xdr:rowOff>
+      <xdr:rowOff>86030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2954,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2974,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -2983,12 +3502,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2998,12 +3517,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3016,162 +3535,165 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>233</v>
+        <v>716</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>237</v>
+        <v>705</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>238</v>
+        <v>706</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>239</v>
+        <v>707</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>240</v>
+        <v>708</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="6" t="s">
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -3179,222 +3701,222 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -3404,139 +3926,139 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="231" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
@@ -3544,39 +4066,39 @@
         <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -3586,48 +4108,48 @@
     </row>
     <row r="82" spans="2:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
@@ -3635,80 +4157,80 @@
         <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
@@ -3716,152 +4238,152 @@
         <v>12</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
@@ -3869,63 +4391,63 @@
         <v>13</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.3">
@@ -3933,103 +4455,103 @@
         <v>14</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
@@ -4042,18 +4564,18 @@
         <v>16</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
@@ -4061,18 +4583,18 @@
         <v>17</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
@@ -4080,55 +4602,55 @@
         <v>18</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
@@ -4136,93 +4658,93 @@
         <v>19</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="150" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.3">
@@ -4230,96 +4752,96 @@
         <v>20</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B160" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="168" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="2:4" ht="33" x14ac:dyDescent="0.3">
@@ -4327,221 +4849,221 @@
         <v>21</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B172" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B174" s="4" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B175" s="4" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176" spans="2:4" ht="132" x14ac:dyDescent="0.3">
       <c r="B176" s="4" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="178" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B178" s="4" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" s="4" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" s="4" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" s="4" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" s="4" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="4" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
     </row>
     <row r="194" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B194" s="4" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" s="4" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
@@ -4549,58 +5071,58 @@
         <v>22</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
     </row>
     <row r="198" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" s="4" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" s="4" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
     </row>
     <row r="201" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B201" s="4" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" s="4" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.3">
@@ -4613,106 +5135,106 @@
         <v>23</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" s="4" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" s="4" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" s="4" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" s="4" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
     </row>
     <row r="210" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" s="4" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" s="4" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" s="4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" s="4" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" s="4" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" s="4" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
     </row>
     <row r="217" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4720,269 +5242,269 @@
         <v>24</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" s="4" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
     </row>
     <row r="220" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B220" s="4" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" s="4" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
     </row>
     <row r="223" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B223" s="4" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B225" s="4" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
     </row>
     <row r="226" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B226" s="4" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B229" s="4" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B230" s="4" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
     </row>
     <row r="232" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B232" s="4" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B233" s="4" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B234" s="4" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B235" s="4" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
     </row>
     <row r="236" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B236" s="4" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B237" s="4" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B238" s="4" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B239" s="4" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B240" s="4" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B241" s="4" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" s="4" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" s="4" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" s="4" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" s="4" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B246" s="4" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" s="4" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B248" s="4" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" s="4" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.3">
@@ -4990,7 +5512,7 @@
         <v>25</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.3">
@@ -4998,518 +5520,836 @@
         <v>26</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B252" s="4" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B253" s="4" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B254" s="4" t="s">
-        <v>431</v>
+        <v>414</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B255" s="4" t="s">
-        <v>432</v>
+        <v>415</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="256" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B256" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B260" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C261" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B267" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B268" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B270" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C271" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B273" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B274" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B275" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B276" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B277" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B278" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B279" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B280" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B281" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B282" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B283" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B284" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" ht="99" x14ac:dyDescent="0.3">
+      <c r="B285" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D285" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B286" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B287" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B288" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B289" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B290" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B291" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B292" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B293" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B294" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B295" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B296" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B297" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B298" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B299" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B300" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B301" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B302" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B303" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B304" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B305" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B306" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B307" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B308" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B309" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B310" s="4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B273" s="4" t="s">
+      <c r="C310" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B311" s="4" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="274" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B274" s="4" t="s">
+      <c r="C311" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B312" s="4" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B275" s="4" t="s">
+      <c r="C312" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B313" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B314" s="4" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B276" s="4" t="s">
+      <c r="C314" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B315" s="4" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B277" s="4" t="s">
+      <c r="C315" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B316" s="4" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="278" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B278" s="4" t="s">
+      <c r="C316" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B317" s="4" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B279" s="4" t="s">
+      <c r="C317" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B318" s="4" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B280" s="4" t="s">
+      <c r="C318" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B319" s="4" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B281" s="4" t="s">
+      <c r="C319" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B320" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B321" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B282" s="4" t="s">
+      <c r="C321" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B322" s="4" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="283" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B283" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B284" s="4" t="s">
+      <c r="C322" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B323" s="4" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B285" s="4" t="s">
+      <c r="C323" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="B324" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B325" s="4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B286" s="4" t="s">
+      <c r="C325" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B326" s="4" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B287" s="4" t="s">
+      <c r="C326" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B327" s="4" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B288" s="4" t="s">
+      <c r="C327" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B328" s="4" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="289" spans="2:2" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B289" s="4" t="s">
+      <c r="C328" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B329" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B330" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B290" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B291" s="4" t="s">
+      <c r="C330" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B331" s="4" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B292" s="4" t="s">
+      <c r="C331" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B332" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B333" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B334" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="293" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B293" s="4" t="s">
+      <c r="C334" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B335" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B294" s="4" t="s">
+      <c r="C335" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B336" s="4" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B295" s="4" t="s">
+      <c r="C336" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B337" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="296" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B296" s="4" t="s">
+      <c r="C337" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B338" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B297" s="4" t="s">
+      <c r="C338" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339" s="4" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B298" s="4" t="s">
+      <c r="C339" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B340" s="4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="299" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B299" s="4" t="s">
+      <c r="C340" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B341" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B342" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B343" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B344" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B345" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B300" s="4" t="s">
+      <c r="C345" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B346" s="4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B301" s="4" t="s">
+      <c r="C346" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B347" s="4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="302" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B302" s="4" t="s">
+      <c r="C347" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B348" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B303" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B304" s="4" t="s">
+      <c r="C348" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B349" s="4" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="305" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B305" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" s="4" t="s">
+      <c r="C349" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B350" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B307" s="4" t="s">
+      <c r="C350" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B351" s="4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B308" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B309" s="4" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B310" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B311" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B312" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B313" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B314" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B315" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B316" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B317" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B318" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B319" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="320" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B320" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B321" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B322" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B323" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B324" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B325" s="4" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B326" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B327" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B328" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B329" s="4" t="s">
+      <c r="C351" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B352" s="9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B330" s="4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B331" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B332" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B333" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B334" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B335" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B336" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B337" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B338" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B339" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B340" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B341" s="4" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B342" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B343" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B344" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B345" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B346" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B347" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B348" s="4" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B349" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="350" spans="2:2" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B350" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B351" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B352" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/101.xlsx
+++ b/101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="11595"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="24810" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="719">
   <si>
     <t>101. The One Where Monica Gets a New Roommate</t>
   </si>
@@ -45,9 +45,6 @@
     <t>(Rachel enters in a wet wedding dress and starts to search the room.)</t>
   </si>
   <si>
-    <t>(The scene on TV has changed to show two women, one is holding her hair.)</t>
-  </si>
-  <si>
     <t>(She is pushed down the stairs and everyone cheers.)</t>
   </si>
   <si>
@@ -133,95 +130,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>그래, 조이, 잘했다. 그가 혹이 있니? 혹하고 가발을 썼니?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 이래, 네가 그 남자와 데이트 할 거잖아.  
-그에 잘 못 된 곳이라도 있어?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>잠깐, 그 사람 분필을 먹니?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>그냥, 왜냐하면, 나는 원치 않아 겪는 것을, 내가 겪었던 것을, "카알"에게</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>알았어, 모두 진정해. 이것은 데이트라고 할 수 없어.
-단지 두 사람이 밖에서 저녁 먹는 것 뿐이야, 섹스도 없고.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>나에게는 데이트라고 들리는데.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>좋아, 고등학교 시절도 돌아갔어. 난 서 있어 카페테리아 중앙에 그리고 
-난 깨달았어 내가 완전히 나체라는 것을</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오 그래. 꿈에서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">그리고 나서 아래를 보았어, 
-그리고 난 깨달았어 그곳에 전화기가 있는 것을 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>… 대신에</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>맞아</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>그런 꿈을 꾼 적 없어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>아니</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>갑자기 전화기가 울리기 시작했어. 난 무엇을 할지 몰랐어.
-모든 사람들이 시작했어 나를 보기를</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>그들은 보지 않았나 너를 그 전에?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>마침내, 나는 깨달았어, 전화를 받는 것이 낫겠다. 
-그리고 밝혀졌어. 엄마인거야. (엄마로 밝혀졌어)
-정말정말로 이상해. 왜냐하면 엄마는 절대 나에게 전화하지 않거든.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>안녕</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이 남자가 안녕이라 하네, 나는 죽고 싶어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>괜찮아. 자기(오빠)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> intestine : 장(내장)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 단지 … 처럼 느낀다. 누군가 내 목을 통해 내려가 닿고,
-나의 작은 내장(소장?) , 내 입 밖으로 끄집어 내서 내 목을 감아 묶는 것 같은 느낌</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -254,19 +191,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>난 괜찮아, 알았어? 정말이야, 모두들, 나는 그녀가 행복하길 바래.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>아니야, 그렇지 않아.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니야 그렇지 않아. 지옥에나 가라, 그녀가 날 떠났네.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>넌 정말 몰랐어 그녀가 레즈비언이었다는 것을.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -294,11 +219,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>괜찮아, 로스, 봐, 너는 느낄거야 큰 고통을 지금 당장, 너는 화가 나고, 
-너는 아플꺼야. 내가 너게 말해도 돼, 해답이 무엇인지?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>스트립쇼 극장! 너는 독신이야. 남자답게 굴어</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -307,17 +227,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>나도 단지 백만 장자가 되길 원해(백만 불을 원해)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>레이첼?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오 하나님 모미카 안녕, 하나님 감사합니다. 난 막 네 빌딩(집)에 갔었어, 
-너는 거기에 없고 그리고 나서 그 남자 큰 해머를 가진 남자가 말하기를 
-네가 아마 여기에 있을 거라고 했어 그리고 네가 있어, 네가 있어!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -357,21 +267,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">오 하나님, 30분 전에 시작했어 결혼식 전. 나는 방에 있어어, 우리가 모든 선물을 보관하고 있는, 그리고 나는 이 그레비 스프 그릇을 바라고 있었어.
-이것 정말 아름다운 라마우지 그래비 스프 그릇이었어. 
-그때 갑자기 난 깨달았어 난 좀더 바뀐 것을 이 그래비 스프 그릇으로 인해서 배리로 인한 것보다!
-그리고 나너 난 정말 당황했어(흥분), 그리고 그것이 나를 쳤어, 얼마나 배리가 보이는지 미스터 포테이토 머리와 같이 보이는지 
-그러니까 내 말은 나는 늘 알았어  친밀해 보이는 것, 하지만, 어쨌던 나는 단 그 곳에서 벗어나고 싶었어 그리고 나는 시작했어 헤메기(걱정, 혼란)를 왜 내가 이것을 하지, 나는 누구지 이것을 하고 있는.
-그러서 어쨌던 나는 어디로 갈지 몰랐어, 그리고 난 알아 너와 내가 사이가 멀어졌지만... 그러나 너는 유일한 사람이야 내가 알고 있는 여기 이 도시에 살고 있는
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>결혼식에 초대 받지 않은 사람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">오, 난 그냥 바래 그것이 문제가 되질 않기를. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -472,10 +368,6 @@
   </si>
   <si>
     <t>[로스가 들어온다.]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(레이첼을 가리키며)디카페인, 자 여러분 여기는 레이첼, 또 다른 링컨고등학교 생존자. 여기 모두, 여기는 챈들러, 피비, 조이 그리고 너도 기억하지 내 오빠 로스?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -994,152 +886,7 @@
     <t>Phoebe: No.</t>
   </si>
   <si>
-    <t>Monica: And they weren't looking at you before?!</t>
-  </si>
-  <si>
-    <t>Chandler: Finally, I figure I'd better answer it, and it turns out it's my mother, which is very-very weird, because- she never calls me!</t>
-  </si>
-  <si>
-    <t>Ross: (mortified) Hi.</t>
-  </si>
-  <si>
-    <t>Joey: This guy says hello, I wanna kill myself.</t>
-  </si>
-  <si>
-    <t>Monica: Are you okay, sweetie?</t>
-  </si>
-  <si>
-    <t>Ross: I just feel like someone reached down my throat, grabbed my small intestine, pulled it out of my mouth and tied it around my neck...</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chandler: Cookie?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica: (explaining to the others) Carol moved her stuff out today. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Joey: Ohh.</t>
-  </si>
-  <si>
-    <t>Monica: (to Ross) Let me get you some coffee.</t>
-  </si>
-  <si>
-    <t>Ross: Thanks.</t>
-  </si>
-  <si>
-    <t>Phoebe: Ooh! Oh! (She starts to pluck at the air just in front of Ross.)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ross: No, no don't! Stop cleansing my aura! No, just leave my aura alone, okay?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phoebe: Fine!  Be murky!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ross: I'll be fine, alright? Really, everyone. I hope she'll be very happy.</t>
-  </si>
-  <si>
-    <t>Monica: No you don't.</t>
-  </si>
-  <si>
-    <t>Ross: No I don't, to hell with her, she left me!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joey: And you never knew she was a lesbian...</t>
-  </si>
-  <si>
-    <t>Ross: No!! Okay?! Why does everyone keep fixating on that? She didn't know, how should I know?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chandler: Sometimes I wish I was a lesbian... (They all stare at him.) Did I say that out loud?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ross: I told mom and dad last night, they seemed to take it pretty well.</t>
-  </si>
-  <si>
-    <t>Monica: Oh really, so that hysterical phone call I got from a woman at sobbing 3:00 A.M., "I'll never have grandchildren, I'll never have grandchildren." was what?  A wrong number?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ross: Sorry.</t>
-  </si>
-  <si>
-    <t>Joey: Alright Ross, look. You're feeling a lot of pain right now. You're angry. You're hurting. Can I tell you what the answer is?</t>
-  </si>
-  <si>
-    <t>Joey: Strip joint! C'mon, you're single! Have some hormones!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ross: I don't want to be single, okay? I just... I just- I just wanna be married again!</t>
-  </si>
-  <si>
-    <t>Chandler: And I just want a million dollars! (He extends his hand hopefully.)</t>
-  </si>
-  <si>
-    <t>Monica: Rachel?!</t>
-  </si>
-  <si>
-    <t>Rachel: Oh God Monica hi! Thank God! I just went to your building and you weren't there and then this guy with a big hammer said you might be here and you are, you are!</t>
-  </si>
-  <si>
-    <t>Waitress: Can I get you some coffee?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica: (pointing at Rachel) De-caff. (to All) Okay, everybody, this is Rachel, another Lincoln High survivor. (to Rachel) This is everybody, this is Chandler, and Phoebe, and Joey, and- you remember my brother Ross? </t>
-  </si>
-  <si>
-    <t>Rachel: Hi, sure!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross: Hi. </t>
-  </si>
-  <si>
-    <t>Monica: So you wanna tell us now, or are we waiting for four wet bridesmaids?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rachel: Oh God... well, it started about a half hour before the wedding. I was in the room where we were keeping all the presents, and I was looking at this gravy boat. This really gorgeous Lamauge gravy boat. When all of a sudden- (to the waitress that brought her coffee)Sweet 'n' Lo?- I realized that I was more turned on by this gravy boat than by Barry! And then I got really freaked out, and that's when it hit me: how much Barry looks like Mr. Potato Head. Y'know, I mean, I always knew looked familiar, but... Anyway, I just had to get out of there, and I started wondering 'Why am I doing this, and who am I doing this for?'. (to Monica) So anyway I just didn't know where to go, and I know that you and I have kinda drifted apart, but you're the only person I knew who lived here in the city.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monica: Who wasn't invited to the wedding.</t>
-  </si>
-  <si>
-    <t>Rachel: Ooh, I was kinda hoping that wouldn't be an issue... [Scene: Monica's Apartment, everyone is there and watching a Spanish Soap on TV and are trying to figure out what is going on.]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica: Now I'm guessing that he bought her the big pipe organ, and she's really not happy about it. </t>
-  </si>
-  <si>
-    <t>Chandler: (imitating the characters) Tuna or egg salad?  Decide!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ross: (in a deep voice) I'll have whatever Christine is having.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachel: (on phone) Daddy, I just... I can't marry him! I'm sorry. I just don't love him. Well, it matters to me! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phoebe:  If I let go of my hair, my head will fall off. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandler: (re TV) Ooh, she should not be wearing those pants. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joey: I say push her down the stairs. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Phoebe, Ross, Chandler, and Joey:  Push her down the stairs! Push her down the stairs! Push her down the stairs!</t>
@@ -2898,11 +2645,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Phoebe: 
-Just, 'cause, I don't want her to go through what I went through with Carl- oh!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Monica: 
 Okay, everybody relax. 
 This is not even a date. 
@@ -2931,18 +2673,7 @@
   </si>
   <si>
     <t>Chandler: 
-[All right Joey, be nice.  - 없음]
-So does he have a hump? A hump and a hairpiece?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chandler: 
 Then I look down, and I realize there's a phone... there.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joey: 
-Instead of...?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2962,9 +2693,382 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>왜 이래(무슨소리야), 그 남자와 데이트 할 거잖아.  
+그에 어딘가 잘못 된 곳이라고 있을거야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래, 조이, 잘했다. 
+그가 혹이 있니? 혹도 있고 가발도 쓰는 거야?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥, 왜냐하면, 나는 원치 않아 네가 겪는 것을 내가 겪었던 "칼알"에게서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>알았어, 모두 진정해. 
+이것은 데이트라고 할 수 없어.
+단지 두 사람이 밖에서 저녁 먹는 것 뿐이야, 섹스도 하지않고.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아, 고등학교 시절도 돌아갔어. 
+난 서 있어 카페테리아 중앙에 그리고 난 깨달았어 내가 완전히 나체라는 것을.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 그래. 나도 그 꿈을 꾸었어(I had that dream)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 꿈을 꾼 적 없어(I never had that dream)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 나서 아래를 보았어, 
+그리고 난 깨달았어 그곳에 전화기가 있는 것을, 그곳에</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>… 대신에?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑자기 전화기가 울리기 시작했어. 난 무엇을 할지 몰랐어.
+모든 사람들이 시작했어 나를 보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+[All right Joey, be nice.  - 영상에 없음]
+So does he have a hump? A hump and a hairpiece?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+All of a sudden, the phone starts to ring. 
+[Now I don't know what to do, everybody starts looking at me. - 영상에 없음]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Monica: And they weren't looking at you before?! - 영상에 없음]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+[Finally, I figure I'd better answer it, - 영상에 없다]
+and it turns out it's my mother, which is very-very weird, because- she never calls me!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey: 
+Instead of...?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross: 
+(mortified) Hi.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey: 
+This guy says "hello, I wanna kill myself."</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 남자가 "안녕, 난 죽고싶어"라고 말하네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마침내, 나는 깨달았어, 전화를 받는 것이 낫겠다. 
+그리고 밝혀졌어/알고보니. 엄마인거야. (엄마로 밝혀졌어)
+정말 정말로 이상해. 왜냐하면 엄마는 절대 나에게 전화하지 않거든.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica: 
+Are you okay, sweetie?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 단지 느껴져/기분이야 , 누군가 내 목을 통해 내려가 나의 작은 내장(소장?)을 잡고
+내 입 밖으로 끄집어 내서 내 목 주변을 감는을 감아 묶는 것 같은. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+Cookie?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica: 
+(explaining to the others) Carol moved her stuff out today. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross: 
+I just feel like someone reached down my throat, grabbed my small intestine, 
+pulled it out of my mouth and tied it around my neck...</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoebe: 
+Just, 'cause, I don't want her to go through what I went through with Carl- oh!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica: (to Ross) 
+Let me get you some coffee.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross: 
+Thanks.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phoebe: 
+Ooh! Oh! (She starts to pluck at the air just in front of Ross.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross: 
+No, no don't! Stop cleansing my aura! No, just leave my aura alone, okay?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross: 
+I'll be fine, alright? Really, everyone. I hope she'll be very happy.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Phoebe: Fine!  Be murky! - 영상에 없다]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 괜찮아, 알았어? 정말로, 모두들, 나는 그녀가 행복하길 바래.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica: 
+No you don't.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross: 
+No I don't, to hell with her, she left me!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey: 
+And you never knew she was a lesbian...</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 정말 몰랐어? 그녀가 레즈비언이었다는 것을.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross: 
+No!! Okay?! Why does everyone keep fixating on that? 
+She didn't know, how should I know?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+Sometimes I wish I was a lesbian... 
+(They all stare at him.) Did I say that out loud?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Ross: I told mom and dad last night, they seemed to take it pretty well. - 영상에 없다]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Monica: Oh really, so that hysterical phone call I got from a woman at sobbing 3:00 A.M., "I'll never have grandchildren, I'll never have grandchildren." was what?  A wrong number? - 영상에 없다]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Ross: Sorry. - 영상에 없다]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey: 
+Alright Ross, look. You're feeling a lot of pain right now. 
+You're angry. You're hurting. Can I tell you what the answer is?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아, 로스, 봐, 너는 느낄거야 큰 고통을 지금 당장, 너는 화가 나고, 
+너는 상처를 받았어. 내가 너게 말해도 돼, 해답이 무엇인지?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joey: 
+Strip joint! C'mon, you're single! [Have some hormones!-영상에 없다]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+And I just want a million dollars! (He extends his hand hopefully.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waitress: 
+Can I get you some coffee?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachel: 
+Hi, sure!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 단지 백만 불을 원해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica: 
+Rachel?!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ross:
+[See but] I don't want to be single, okay? I just... I just- I just wanna be married again!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachel: 
+Oh God Monica hi! Thank God! 
+I just went to your building and you weren't there and 
+then this guy with a big hammer said you might be here and you are, you are!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 하나님 모미카 안녕, 하나님 감사합니다. 난 막 네 집에 갔었어, 
+너는 거기에 없고 그때  큰 해머를 든 그 남자가 말하기를 
+네가 아마 여기에 있을 거라고 했어 그리고 네가 있어, 네가 있어!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica: 
+(pointing at Rachel) De-caff. 
+(to All) Okay, everybody, this is Rachel, another Lincoln High survivor. 
+(to Rachel) This is everybody, this is Chandler, and Phoebe, and Joey, and- you remember my brother Ross? </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(레이첼을 가리키며)카페인 없는 것으로
+자 여러분(친구들) 여기는 레이첼, 또 다른 링컨고등학교 생존자. 
+이쪽은 구들이야 여기는 챈들러, 피비, 조이 그리고 너도 기억하지 내 오빠 로스?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross: 
+Hi. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica: 
+So you wanna tell us now, or are we waiting for four wet bridesmaids?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortified : 굴욕감을 느낀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니야 그렇지 않아. 그여자 내가 알게 뭐야~(행복하던지 말던지), 그녀가 날 떠났어.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachel: 
+Oh God... well, it started about a half hour before the wedding.
+I was in the room where we were keeping all the presents, 
+and I was looking at this gravy boat. This really gorgeous Lamauge gravy boat. 
+When all of a sudden- (to the waitress that brought her coffee)Sweet 'n' Lo?- 
+I realized that I was more turned on by this gravy boat than by Barry! 
+And then I got really freaked out, and that's when it hit me: how much Barry looks like Mr. Potato Head. 
+Y'know, I mean, I always knew looked familiar, but... 
+Anyway, I just had to get out of there, and I started wondering 
+'Why am I doing this, and who am I doing this for?'. 
+(to Monica) So anyway I just didn't know where to go, 
+and I know that you and I have kinda drifted apart, 
+but you're the only person I knew who lived here in the city.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오 하나님, 30분 전에 시작했어 결혼식 전. 
+나는 방에 있어어, 우리가 모든 선물을 보관하고 있는, 
+그리고 나는 이 그레비 스프 그릇을 바라보았어.
+정말 아름다운 라마우지 그래비 스프 그릇이었어. 
+그때 갑자기 난 깨달았어 내가 더 흥미/흥분 했다는 것을 이 그래비 스프 그릇으로 인해서 배리로 인한 것보다!
+그리고 나서 난 정말 깜짝 놀랐어(당황/흥분했어), 
+그리고 나서 그것이 나를 쳤을 때, 얼마나 배리가 미스터 포테이토 머리처럼 보이는지 
+그러니까 내 말은 나는 늘 알았어 친밀해 보이는지 그러나, 
+어쨌던 나는 그냥 그 곳에서 벗어나와 고민하기 시작했어 
+(걱정, 혼란)를 왜 내가 이것을 하지, 나는 누구를 위해서 이것을 하고 있지?
+(모니카에게) 어쨌던 나는 어디로 갈지 몰랐어, 
+그리고 난 알아 너와 내가 사이가 멀어졌지만... 
+그러나 너는 유일한 사람이야 내가 알고 있는 여기 이 도시에 살고 있는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monica: 
+Who wasn't invited to the wedding.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rachel: 
+Ooh, I was kinda hoping that wouldn't be an issue... 
+[Scene: Monica's Apartment, everyone is there and watching a Spanish Soap on TV 
+and are trying to figure out what is going on.]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 난 그냥 바랬는데 … 그것이 문제가 되질 않기를. 
+[모니카 아파트 : 모두가 그곳에서 보고있다 스페인 드라마를 티비에서
+그리고 이해하려고 하고 있다 무슨 일이 일어나는지]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica:
+Now I'm guessing that he bought her the big pipe organ, 
+and she's really not happy about it. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chandler: 
+(imitating the characters) Tuna or egg salad?  Decide!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Ross: (in a deep voice) I'll have whatever Christine is having. - 영상에 없음]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(The scene on TV has changed to show two women, one is holding her hair.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel: 
+(on phone) Daddy, I just... I can't marry him! I'm sorry. 
+I just don't love him. Well, it matters to me! </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Phoebe: If I let go of my hair, my head will fall off. - 영상에 없음]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Chandler: 
-All of a sudden, the phone starts to ring. 
-Now I don't know what to do, everybody starts looking at me. </t>
+(re TV) Ooh, she should not be wearing those pants. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Joey: 
+I say push her down the stairs. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3473,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3493,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
@@ -3502,12 +3606,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3517,12 +3621,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3535,42 +3639,42 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>716</v>
+        <v>647</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>703</v>
+        <v>637</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>39</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>658</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>704</v>
+        <v>638</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3578,34 +3682,34 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
-        <v>706</v>
+        <v>639</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>42</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>707</v>
+        <v>640</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3615,85 +3719,85 @@
     </row>
     <row r="23" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>708</v>
+        <v>641</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>712</v>
+        <v>644</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>713</v>
+        <v>662</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>714</v>
+        <v>645</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>715</v>
+        <v>646</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>717</v>
+        <v>659</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>231</v>
+        <v>660</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>232</v>
+        <v>661</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>53</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -3701,222 +3805,225 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>233</v>
+        <v>663</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>234</v>
+        <v>664</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>235</v>
+        <v>667</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>236</v>
+        <v>671</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>58</v>
+        <v>668</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
-        <v>237</v>
+        <v>669</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>238</v>
+        <v>670</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
-        <v>240</v>
+        <v>673</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>241</v>
+        <v>674</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
-        <v>242</v>
+        <v>675</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>243</v>
+        <v>676</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>244</v>
+        <v>678</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>245</v>
+        <v>677</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>246</v>
+        <v>680</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>247</v>
+        <v>681</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>248</v>
+        <v>682</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>249</v>
+        <v>684</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>250</v>
+        <v>685</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
-        <v>251</v>
+        <v>686</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>252</v>
+        <v>687</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
-        <v>253</v>
+        <v>688</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>254</v>
+        <v>689</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>75</v>
+        <v>690</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
-        <v>255</v>
+        <v>691</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>256</v>
+        <v>697</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -3924,2432 +4031,2432 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
-        <v>257</v>
+        <v>692</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>258</v>
+        <v>696</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
-        <v>259</v>
+        <v>698</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>260</v>
+        <v>693</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
-        <v>261</v>
+        <v>700</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
-        <v>262</v>
+        <v>694</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>263</v>
+        <v>702</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
-        <v>264</v>
+        <v>703</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="231" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
-        <v>265</v>
+        <v>706</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>89</v>
+        <v>707</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
-        <v>266</v>
+        <v>708</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
-        <v>268</v>
+        <v>711</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
-        <v>269</v>
+        <v>712</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
-        <v>270</v>
+        <v>713</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
-        <v>271</v>
+        <v>715</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
-        <v>9</v>
+        <v>714</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
-        <v>272</v>
+        <v>716</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
-        <v>273</v>
+        <v>717</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
-        <v>274</v>
+        <v>718</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="4" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="4" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="4" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="4" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="4" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="4" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="4" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="4" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="4" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="4" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="4" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B111" s="4" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" s="4" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B113" s="4" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B115" s="4" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116" s="4" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117" s="4" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118" s="4" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119" s="4" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120" s="4" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121" s="4" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123" s="4" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124" s="4" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B125" s="4" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126" s="4" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127" s="4" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B128" s="4" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
-        <v>319</v>
+        <v>253</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130" s="4" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B131" s="4" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" s="4" t="s">
-        <v>323</v>
+        <v>257</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
-        <v>324</v>
+        <v>258</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B137" s="4" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B139" s="4" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" s="4" t="s">
-        <v>327</v>
+        <v>261</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="4" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" s="4" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" s="4" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" s="4" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" s="4" t="s">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" s="4" t="s">
-        <v>333</v>
+        <v>267</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" s="4" t="s">
-        <v>334</v>
+        <v>268</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B150" s="4" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
-        <v>336</v>
+        <v>270</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" s="4" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B153" s="4" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" s="4" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" s="4" t="s">
-        <v>342</v>
+        <v>276</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" s="4" t="s">
-        <v>343</v>
+        <v>277</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B160" s="4" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B161" s="4" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B162" s="4" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" s="4" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B165" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B166" s="4" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B167" s="4" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="2:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B168" s="4" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B169" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B172" s="4" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B174" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B175" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="2:4" ht="132" x14ac:dyDescent="0.3">
       <c r="B176" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="178" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B178" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" s="4" t="s">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>480</v>
+        <v>414</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>481</v>
+        <v>415</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" s="4" t="s">
-        <v>482</v>
+        <v>416</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>483</v>
+        <v>417</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>484</v>
+        <v>418</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" s="4" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>485</v>
+        <v>419</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" s="4" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>486</v>
+        <v>420</v>
       </c>
     </row>
     <row r="185" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B185" s="4" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>488</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>489</v>
+        <v>423</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" s="4" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>490</v>
+        <v>424</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" s="4" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" s="4" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" s="4" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" s="4" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
     </row>
     <row r="194" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B194" s="4" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" s="4" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
     </row>
     <row r="197" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B197" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
     </row>
     <row r="198" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" s="4" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" s="4" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
     </row>
     <row r="201" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B201" s="4" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" s="4" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" s="4" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" s="4" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" s="4" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" s="4" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
     </row>
     <row r="210" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B210" s="4" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" s="4" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" s="4" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" s="4" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" s="4" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" s="4" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" s="4" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
     </row>
     <row r="217" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B217" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" s="4" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
     </row>
     <row r="220" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B220" s="4" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" s="4" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>533</v>
+        <v>467</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
     </row>
     <row r="223" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B223" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B225" s="4" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
     </row>
     <row r="226" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B226" s="4" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B227" s="4" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B228" s="4" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B229" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B230" s="4" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B231" s="4" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
     </row>
     <row r="232" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B232" s="4" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>547</v>
+        <v>481</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B233" s="4" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B234" s="4" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B235" s="4" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>551</v>
+        <v>485</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
     </row>
     <row r="236" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B236" s="4" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>552</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B237" s="4" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>553</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B238" s="4" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>554</v>
+        <v>488</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B239" s="4" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>555</v>
+        <v>489</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B240" s="4" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>556</v>
+        <v>490</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B241" s="4" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>557</v>
+        <v>491</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" s="4" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>558</v>
+        <v>492</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" s="4" t="s">
-        <v>408</v>
+        <v>342</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>559</v>
+        <v>493</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" s="4" t="s">
-        <v>560</v>
+        <v>494</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" s="4" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>563</v>
+        <v>497</v>
       </c>
     </row>
     <row r="246" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B246" s="4" t="s">
-        <v>564</v>
+        <v>498</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>566</v>
+        <v>500</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>565</v>
+        <v>499</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" s="4" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>567</v>
+        <v>501</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B248" s="4" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>568</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" s="4" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>569</v>
+        <v>503</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B250" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>570</v>
+        <v>504</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B251" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>572</v>
+        <v>506</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B252" s="4" t="s">
-        <v>412</v>
+        <v>346</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>571</v>
+        <v>505</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B253" s="4" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>573</v>
+        <v>507</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B254" s="4" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>574</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B255" s="4" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>575</v>
+        <v>509</v>
       </c>
     </row>
     <row r="256" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B256" s="4" t="s">
-        <v>576</v>
+        <v>510</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>577</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" s="4" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>578</v>
+        <v>512</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" s="4" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>579</v>
+        <v>513</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" s="4" t="s">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>580</v>
+        <v>514</v>
       </c>
     </row>
     <row r="260" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B260" s="4" t="s">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="D260" s="7" t="s">
-        <v>581</v>
+        <v>515</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>584</v>
+        <v>518</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" s="4" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" s="4" t="s">
-        <v>587</v>
+        <v>521</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>588</v>
+        <v>522</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" s="4" t="s">
-        <v>589</v>
+        <v>523</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>590</v>
+        <v>524</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" s="4" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>591</v>
+        <v>525</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" s="4" t="s">
-        <v>592</v>
+        <v>526</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>593</v>
+        <v>527</v>
       </c>
     </row>
     <row r="267" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B267" s="4" t="s">
-        <v>594</v>
+        <v>528</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>595</v>
+        <v>529</v>
       </c>
     </row>
     <row r="268" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B268" s="4" t="s">
-        <v>597</v>
+        <v>531</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>596</v>
+        <v>530</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" s="4" t="s">
-        <v>420</v>
+        <v>354</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>598</v>
+        <v>532</v>
       </c>
     </row>
     <row r="270" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B270" s="4" t="s">
-        <v>599</v>
+        <v>533</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>600</v>
+        <v>534</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>601</v>
+        <v>535</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>602</v>
+        <v>536</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B273" s="4" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>603</v>
+        <v>537</v>
       </c>
     </row>
     <row r="274" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B274" s="4" t="s">
-        <v>604</v>
+        <v>538</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>605</v>
+        <v>539</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B275" s="4" t="s">
-        <v>606</v>
+        <v>540</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>607</v>
+        <v>541</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>608</v>
+        <v>542</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B276" s="4" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>609</v>
+        <v>543</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B277" s="4" t="s">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
     </row>
     <row r="278" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B278" s="4" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>702</v>
+        <v>636</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B279" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B280" s="4" t="s">
-        <v>427</v>
+        <v>361</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>612</v>
+        <v>546</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B281" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>613</v>
+        <v>547</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B282" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>614</v>
+        <v>548</v>
       </c>
     </row>
     <row r="283" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B283" s="4" t="s">
-        <v>617</v>
+        <v>551</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>615</v>
+        <v>549</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>616</v>
+        <v>550</v>
       </c>
     </row>
     <row r="284" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B284" s="4" t="s">
-        <v>618</v>
+        <v>552</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>619</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="2:4" ht="99" x14ac:dyDescent="0.3">
       <c r="B285" s="4" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>621</v>
+        <v>555</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>622</v>
+        <v>556</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B286" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>623</v>
+        <v>557</v>
       </c>
     </row>
     <row r="287" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B287" s="4" t="s">
-        <v>625</v>
+        <v>559</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>626</v>
+        <v>560</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B288" s="4" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>624</v>
+        <v>558</v>
       </c>
     </row>
     <row r="289" spans="2:3" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B289" s="4" t="s">
-        <v>627</v>
+        <v>561</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>628</v>
+        <v>562</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B290" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>629</v>
+        <v>563</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B291" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>630</v>
+        <v>564</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B292" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>631</v>
+        <v>565</v>
       </c>
     </row>
     <row r="293" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B293" s="4" t="s">
-        <v>434</v>
+        <v>368</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>632</v>
+        <v>566</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B294" s="4" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B295" s="4" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>634</v>
+        <v>568</v>
       </c>
     </row>
     <row r="296" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B296" s="4" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>635</v>
+        <v>569</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B297" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>636</v>
+        <v>570</v>
       </c>
     </row>
     <row r="298" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B298" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>637</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B299" s="4" t="s">
-        <v>638</v>
+        <v>572</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>701</v>
+        <v>635</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B300" s="4" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>639</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B301" s="4" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>640</v>
+        <v>574</v>
       </c>
     </row>
     <row r="302" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B302" s="4" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>641</v>
+        <v>575</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B303" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>642</v>
+        <v>576</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B304" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>643</v>
+        <v>577</v>
       </c>
     </row>
     <row r="305" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B305" s="4" t="s">
-        <v>644</v>
+        <v>578</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>645</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B306" s="4" t="s">
-        <v>647</v>
+        <v>581</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>646</v>
+        <v>580</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>648</v>
+        <v>582</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B307" s="4" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>649</v>
+        <v>583</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B308" s="4" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B309" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>651</v>
+        <v>585</v>
       </c>
     </row>
     <row r="310" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B310" s="4" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>652</v>
+        <v>586</v>
       </c>
     </row>
     <row r="311" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B311" s="4" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B312" s="4" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>654</v>
+        <v>588</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B313" s="4" t="s">
-        <v>656</v>
+        <v>590</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>655</v>
+        <v>589</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>657</v>
+        <v>591</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B314" s="4" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>658</v>
+        <v>592</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B315" s="4" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>659</v>
+        <v>593</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B316" s="4" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>660</v>
+        <v>594</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B317" s="4" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>661</v>
+        <v>595</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B318" s="4" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>662</v>
+        <v>596</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B319" s="4" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>663</v>
+        <v>597</v>
       </c>
     </row>
     <row r="320" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B320" s="4" t="s">
-        <v>664</v>
+        <v>598</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>665</v>
+        <v>599</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>669</v>
+        <v>603</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B321" s="4" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>666</v>
+        <v>600</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B322" s="4" t="s">
-        <v>457</v>
+        <v>391</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B323" s="4" t="s">
-        <v>458</v>
+        <v>392</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>668</v>
+        <v>602</v>
       </c>
     </row>
     <row r="324" spans="2:4" ht="66" x14ac:dyDescent="0.3">
       <c r="B324" s="4" t="s">
-        <v>670</v>
+        <v>604</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>671</v>
+        <v>605</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>672</v>
+        <v>606</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B325" s="4" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>673</v>
+        <v>607</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B326" s="4" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>674</v>
+        <v>608</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B327" s="4" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>654</v>
+        <v>588</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B328" s="4" t="s">
-        <v>462</v>
+        <v>396</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>654</v>
+        <v>588</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B329" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>675</v>
+        <v>609</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B330" s="4" t="s">
-        <v>463</v>
+        <v>397</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>676</v>
+        <v>610</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B331" s="4" t="s">
-        <v>464</v>
+        <v>398</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>677</v>
+        <v>611</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B332" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B333" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>678</v>
+        <v>612</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B334" s="4" t="s">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>679</v>
+        <v>613</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B335" s="4" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>680</v>
+        <v>614</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B336" s="4" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>681</v>
+        <v>615</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B337" s="4" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>686</v>
+        <v>620</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B338" s="4" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>682</v>
+        <v>616</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B339" s="4" t="s">
-        <v>470</v>
+        <v>404</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>683</v>
+        <v>617</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B340" s="4" t="s">
-        <v>471</v>
+        <v>405</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>651</v>
+        <v>585</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B341" s="4" t="s">
-        <v>685</v>
+        <v>619</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>684</v>
+        <v>618</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B342" s="4" t="s">
-        <v>687</v>
+        <v>621</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>689</v>
+        <v>623</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>688</v>
+        <v>622</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B343" s="4" t="s">
-        <v>690</v>
+        <v>624</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B344" s="4" t="s">
-        <v>692</v>
+        <v>626</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>693</v>
+        <v>627</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B345" s="4" t="s">
-        <v>472</v>
+        <v>406</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>694</v>
+        <v>628</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B346" s="4" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>695</v>
+        <v>629</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B347" s="4" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
     </row>
     <row r="348" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B348" s="4" t="s">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>697</v>
+        <v>631</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B349" s="4" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>698</v>
+        <v>632</v>
       </c>
     </row>
     <row r="350" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B350" s="4" t="s">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>699</v>
+        <v>633</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B351" s="4" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>700</v>
+        <v>634</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B352" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
